--- a/Output_testing/R1_201907/Country/HKD/MN/SENEGAL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SENEGAL_201907_HKD_MN.xlsx
@@ -810,136 +810,469 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>918.857131</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>95.58530664478158</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1315.697018</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>95.26809359256335</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1335.08688</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>96.12695708678673</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>810.823875</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>96.18617243057393</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-5.4053766175722</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>10.887981</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.132636366977877</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>4.21982</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.3055522671282445</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2.320917</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.1671072438828803</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>11.843827</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>1.405005971315148</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>833.7479442896586</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>10.023335</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.7216853883033346</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>8.791487</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.042913893603773</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>486.6133977453567</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.748076</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.07781957764835765</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3.679268</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.2649092298373778</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.910501</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.2266383419146161</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-10.89193373031216</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.87738</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.2071728723619682</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.256484</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.1490538086094927</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.71134</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.38607696451892</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.562406</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2579496826242021</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.498359</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1078826355432395</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.1434</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.1356389136384498</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>73.96358236568562</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>6.355925</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.6611833544514696</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>19.808722</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.434326562747495</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>8.322678</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5992371904314902</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.012977</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.1201671329549904</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-85.29489770721491</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.871745</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.1034131054484436</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.120371</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5326532446207319</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>10.511092</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7610959686890799</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.848058</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.2050616729502125</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.864023</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.1024970623391939</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-30.70470000505264</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.604633</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.06289773324135439</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.832903</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3499448953891147</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.581396</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4018634456031528</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.537092</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.0637139893334811</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>78.51653903424803</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>14.761498</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>1.535584004589208</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>21.64567</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>1.56733783479149</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>16.546742</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>1.191374121031084</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>3.918017</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0.4647853502684785</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-57.45851218578149</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1304,593 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>6.355925</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>88.31095660679624</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>19.808722</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>97.65137000499627</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>8.322678</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>95.73538328245769</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.009467</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>80.71048335126957</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-85.34585139031698</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>5.008093413975693</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>2.152599845847787</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.227232116616029</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.99728957421529</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-10.10926343029664</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.4700432528715989</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.05409870129101862</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.292227074515122</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>6.210906726356463</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.1419314478649278</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1922,475 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>918.857131</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>96.30635145001705</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1315.697018</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>96.68827397156392</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1335.08688</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>96.7324351312063</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>810.823875</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>96.32909663401237</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-5.4053766175722</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>10.887981</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.141180374391749</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>4.21982</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.310107195417148</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2.320917</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>0.168159807807724</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>11.843827</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>1.407093686775719</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>833.7479442896586</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>10.023335</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.7262310919315227</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>8.791487</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.044463572042281</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>486.6133977453567</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3.679268</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.266577822366379</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.910501</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.2269751065832605</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-10.89193373031216</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.87738</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.208477798986258</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.256484</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.1492752894765098</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.71134</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.388989324163504</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.562406</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2617949897382401</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.498359</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.1085621594684229</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.1434</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.1358404611498764</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>73.96358236568562</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.871745</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.1035667682395479</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>5.120371</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.5366712979022147</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>10.511092</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.7724417773487069</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2.848058</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2063533016929304</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.864023</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.1026493639707011</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-30.70470000505264</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.604633</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.06337220034730096</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>4.832903</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3551615933980882</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>5.581396</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.4043946761813541</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.537092</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.06380866272512631</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>78.51653903424803</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.234116</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3389709908298283</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.462351</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2544421226876402</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>2.915182</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2112167065192493</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.05406602422848754</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-72.58977111062124</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11.133109</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>1.166872489652962</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>17.735687</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>1.303364635071252</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>13.260819</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>0.9607998797083288</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>3.225182</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0.3831644307961175</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-56.06572741173625</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2422,501 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>47.224728</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>47.84208998388647</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>78.070752</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>51.25101188919461</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>82.188924</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>41.89827025934058</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>45.394119</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>40.0867177441147</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-28.26801171140075</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>32.892677</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>33.32267817074379</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>49.970088</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>32.80380307073385</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>56.720248</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>28.91484842751832</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>38.134584</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>33.67595492044317</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>15.11051212677648</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>13.647431</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>13.82584187569872</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>18.022649</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>11.83130653299947</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>47.08817</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>24.00460763639847</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>18.62989</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>16.45171573951914</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-19.19632178444027</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.5145</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.5212259834870746</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3.854463</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.5303346513104</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2.665928</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.359036794738222</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.341915999999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.366593724114666</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.099629</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.127077143795885</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.9187</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.6030978748943405</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>7.201836</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.671352007132352</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.213895</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.071968512837359</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-81.88295375783623</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.8678927373591263</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.1626346637222177</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.2043488864553007</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.1748501851822416</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>114.6108822891827</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1.090112</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.104362875240159</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.3295473312256003</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1239846767655895</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1006713187412906</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.05909861802274438</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.05378448774365225</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>29.27423130950524</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.021635</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.034990685402949</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.5983000000000001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.3927652754427822</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.08175240017681618</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-19.19063079777366</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
